--- a/StructureDefinition-profile-TestScript.xlsx
+++ b/StructureDefinition-profile-TestScript.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9384667-06:00</t>
+    <t>2026-02-20T11:59:20.9753667-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestScript|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/TestScript</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.versionAlgorithm}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.copyrightLabel}
 </t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>scope</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.scope|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.scope}
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
     <t>origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.origin|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.origin}
 </t>
   </si>
   <si>
@@ -987,7 +987,7 @@
     <t>destination</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.destination|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.destination}
 </t>
   </si>
   <si>
@@ -1057,7 +1057,7 @@
     <t>metadata</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.metadata|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.metadata}
 </t>
   </si>
   <si>
@@ -1221,7 +1221,7 @@
     <t>fixture</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.fixture|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.fixture}
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
     <t>profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+    <t xml:space="preserve">Extension {alternate-canonical}
 </t>
   </si>
   <si>
@@ -1411,7 +1411,7 @@
     <t>variable</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.variable|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.variable}
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
     <t>setup</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.setup|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.setup}
 </t>
   </si>
   <si>
@@ -2148,7 +2148,7 @@
     <t>test</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.test|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.test}
 </t>
   </si>
   <si>
@@ -2239,7 +2239,7 @@
     <t>teardown</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.teardown|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.teardown}
 </t>
   </si>
   <si>
@@ -2603,7 +2603,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.97265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
